--- a/data/app-data/warnsClean.xlsx
+++ b/data/app-data/warnsClean.xlsx
@@ -11196,7 +11196,7 @@
         <v>3209</v>
       </c>
       <c r="M27" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -11278,7 +11278,7 @@
         <v>3211</v>
       </c>
       <c r="M29" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -11360,7 +11360,7 @@
         <v>3205</v>
       </c>
       <c r="M31" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -11401,7 +11401,7 @@
         <v>3205</v>
       </c>
       <c r="M32" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -11442,7 +11442,7 @@
         <v>3205</v>
       </c>
       <c r="M33" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -11483,7 +11483,7 @@
         <v>3210</v>
       </c>
       <c r="M34" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -11524,7 +11524,7 @@
         <v>3205</v>
       </c>
       <c r="M35" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -11565,7 +11565,7 @@
         <v>3209</v>
       </c>
       <c r="M36" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -11647,7 +11647,7 @@
         <v>3205</v>
       </c>
       <c r="M38" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -11688,7 +11688,7 @@
         <v>3205</v>
       </c>
       <c r="M39" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -11729,7 +11729,7 @@
         <v>3206</v>
       </c>
       <c r="M40" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -11893,7 +11893,7 @@
         <v>3215</v>
       </c>
       <c r="M44" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -11975,7 +11975,7 @@
         <v>3205</v>
       </c>
       <c r="M46" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -75029,7 +75029,7 @@
         <v>3205</v>
       </c>
       <c r="M1657" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1658" spans="1:13">
@@ -75304,7 +75304,7 @@
         <v>3205</v>
       </c>
       <c r="M1664" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1665" spans="1:13">
